--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.869707467695605</v>
+        <v>0.3027976666666667</v>
       </c>
       <c r="H2">
-        <v>0.869707467695605</v>
+        <v>0.908393</v>
       </c>
       <c r="I2">
-        <v>0.3899319993202982</v>
+        <v>0.1119125163607406</v>
       </c>
       <c r="J2">
-        <v>0.3899319993202982</v>
+        <v>0.1185599733538192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.31587880034445</v>
+        <v>2.574263333333333</v>
       </c>
       <c r="N2">
-        <v>2.31587880034445</v>
+        <v>7.72279</v>
       </c>
       <c r="O2">
-        <v>0.6845560849700137</v>
+        <v>0.65042012319661</v>
       </c>
       <c r="P2">
-        <v>0.6845560849700137</v>
+        <v>0.7147042813273964</v>
       </c>
       <c r="Q2">
-        <v>2.014137086937507</v>
+        <v>0.7794809307188889</v>
       </c>
       <c r="R2">
-        <v>2.014137086937507</v>
+        <v>7.01532837647</v>
       </c>
       <c r="S2">
-        <v>0.2669303228592333</v>
+        <v>0.07279015267859551</v>
       </c>
       <c r="T2">
-        <v>0.2669303228592333</v>
+        <v>0.08473532055003659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.869707467695605</v>
+        <v>0.3027976666666667</v>
       </c>
       <c r="H3">
-        <v>0.869707467695605</v>
+        <v>0.908393</v>
       </c>
       <c r="I3">
-        <v>0.3899319993202982</v>
+        <v>0.1119125163607406</v>
       </c>
       <c r="J3">
-        <v>0.3899319993202982</v>
+        <v>0.1185599733538192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.06715854486576</v>
+        <v>0.160691</v>
       </c>
       <c r="N3">
-        <v>1.06715854486576</v>
+        <v>0.482073</v>
       </c>
       <c r="O3">
-        <v>0.3154439150299863</v>
+        <v>0.04060060937171144</v>
       </c>
       <c r="P3">
-        <v>0.3154439150299863</v>
+        <v>0.04461336343631537</v>
       </c>
       <c r="Q3">
-        <v>0.9281157556849268</v>
+        <v>0.04865685985433334</v>
       </c>
       <c r="R3">
-        <v>0.9281157556849268</v>
+        <v>0.437911738689</v>
       </c>
       <c r="S3">
-        <v>0.1230016764610648</v>
+        <v>0.004543716360567693</v>
       </c>
       <c r="T3">
-        <v>0.1230016764610648</v>
+        <v>0.005289359180233801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.459346079867683</v>
+        <v>0.3027976666666667</v>
       </c>
       <c r="H4">
-        <v>0.459346079867683</v>
+        <v>0.908393</v>
       </c>
       <c r="I4">
-        <v>0.2059471051540243</v>
+        <v>0.1119125163607406</v>
       </c>
       <c r="J4">
-        <v>0.2059471051540243</v>
+        <v>0.1185599733538192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.31587880034445</v>
+        <v>0.1549256666666667</v>
       </c>
       <c r="N4">
-        <v>2.31587880034445</v>
+        <v>0.464777</v>
       </c>
       <c r="O4">
-        <v>0.6845560849700137</v>
+        <v>0.03914392513572826</v>
       </c>
       <c r="P4">
-        <v>0.6845560849700137</v>
+        <v>0.04301270807085306</v>
       </c>
       <c r="Q4">
-        <v>1.063789848386895</v>
+        <v>0.04691113037344444</v>
       </c>
       <c r="R4">
-        <v>1.063789848386895</v>
+        <v>0.422200173361</v>
       </c>
       <c r="S4">
-        <v>0.1409823440151466</v>
+        <v>0.004380695162175792</v>
       </c>
       <c r="T4">
-        <v>0.1409823440151466</v>
+        <v>0.005099585522755942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.459346079867683</v>
+        <v>0.3027976666666667</v>
       </c>
       <c r="H5">
-        <v>0.459346079867683</v>
+        <v>0.908393</v>
       </c>
       <c r="I5">
-        <v>0.2059471051540243</v>
+        <v>0.1119125163607406</v>
       </c>
       <c r="J5">
-        <v>0.2059471051540243</v>
+        <v>0.1185599733538192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06715854486576</v>
+        <v>1.067967</v>
       </c>
       <c r="N5">
-        <v>1.06715854486576</v>
+        <v>2.135934</v>
       </c>
       <c r="O5">
-        <v>0.3154439150299863</v>
+        <v>0.2698353422959503</v>
       </c>
       <c r="P5">
-        <v>0.3154439150299863</v>
+        <v>0.1976696471654351</v>
       </c>
       <c r="Q5">
-        <v>0.4901950941813877</v>
+        <v>0.323377915677</v>
       </c>
       <c r="R5">
-        <v>0.4901950941813877</v>
+        <v>1.940267494062</v>
       </c>
       <c r="S5">
-        <v>0.06496476113887771</v>
+        <v>0.03019795215940156</v>
       </c>
       <c r="T5">
-        <v>0.06496476113887771</v>
+        <v>0.02343570810079283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.449012850688449</v>
+        <v>0.99836</v>
       </c>
       <c r="H6">
-        <v>0.449012850688449</v>
+        <v>2.99508</v>
       </c>
       <c r="I6">
-        <v>0.2013142178178151</v>
+        <v>0.3689889062352162</v>
       </c>
       <c r="J6">
-        <v>0.2013142178178151</v>
+        <v>0.3909063643076914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.31587880034445</v>
+        <v>2.574263333333333</v>
       </c>
       <c r="N6">
-        <v>2.31587880034445</v>
+        <v>7.72279</v>
       </c>
       <c r="O6">
-        <v>0.6845560849700137</v>
+        <v>0.65042012319661</v>
       </c>
       <c r="P6">
-        <v>0.6845560849700137</v>
+        <v>0.7147042813273964</v>
       </c>
       <c r="Q6">
-        <v>1.039859341991607</v>
+        <v>2.570041541466666</v>
       </c>
       <c r="R6">
-        <v>1.039859341991607</v>
+        <v>23.1303738732</v>
       </c>
       <c r="S6">
-        <v>0.1378108727981641</v>
+        <v>0.2399978098516917</v>
       </c>
       <c r="T6">
-        <v>0.1378108727981641</v>
+        <v>0.279382452168834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.449012850688449</v>
+        <v>0.99836</v>
       </c>
       <c r="H7">
-        <v>0.449012850688449</v>
+        <v>2.99508</v>
       </c>
       <c r="I7">
-        <v>0.2013142178178151</v>
+        <v>0.3689889062352162</v>
       </c>
       <c r="J7">
-        <v>0.2013142178178151</v>
+        <v>0.3909063643076914</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.06715854486576</v>
+        <v>0.160691</v>
       </c>
       <c r="N7">
-        <v>1.06715854486576</v>
+        <v>0.482073</v>
       </c>
       <c r="O7">
-        <v>0.3154439150299863</v>
+        <v>0.04060060937171144</v>
       </c>
       <c r="P7">
-        <v>0.3154439150299863</v>
+        <v>0.04461336343631537</v>
       </c>
       <c r="Q7">
-        <v>0.4791679003667119</v>
+        <v>0.16042746676</v>
       </c>
       <c r="R7">
-        <v>0.4791679003667119</v>
+        <v>1.44384720084</v>
       </c>
       <c r="S7">
-        <v>0.06350334501965102</v>
+        <v>0.01498117444455107</v>
       </c>
       <c r="T7">
-        <v>0.06350334501965102</v>
+        <v>0.01743964770042774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.452341645231787</v>
+        <v>0.99836</v>
       </c>
       <c r="H8">
-        <v>0.452341645231787</v>
+        <v>2.99508</v>
       </c>
       <c r="I8">
-        <v>0.2028066777078624</v>
+        <v>0.3689889062352162</v>
       </c>
       <c r="J8">
-        <v>0.2028066777078624</v>
+        <v>0.3909063643076914</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.31587880034445</v>
+        <v>0.1549256666666667</v>
       </c>
       <c r="N8">
-        <v>2.31587880034445</v>
+        <v>0.464777</v>
       </c>
       <c r="O8">
-        <v>0.6845560849700137</v>
+        <v>0.03914392513572826</v>
       </c>
       <c r="P8">
-        <v>0.6845560849700137</v>
+        <v>0.04301270807085306</v>
       </c>
       <c r="Q8">
-        <v>1.047568426705226</v>
+        <v>0.1546715885733333</v>
       </c>
       <c r="R8">
-        <v>1.047568426705226</v>
+        <v>1.39204429716</v>
       </c>
       <c r="S8">
-        <v>0.1388325452974696</v>
+        <v>0.01444367412158556</v>
       </c>
       <c r="T8">
-        <v>0.1388325452974696</v>
+        <v>0.01681394133100527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.99836</v>
+      </c>
+      <c r="H9">
+        <v>2.99508</v>
+      </c>
+      <c r="I9">
+        <v>0.3689889062352162</v>
+      </c>
+      <c r="J9">
+        <v>0.3909063643076914</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.067967</v>
+      </c>
+      <c r="N9">
+        <v>2.135934</v>
+      </c>
+      <c r="O9">
+        <v>0.2698353422959503</v>
+      </c>
+      <c r="P9">
+        <v>0.1976696471654351</v>
+      </c>
+      <c r="Q9">
+        <v>1.06621553412</v>
+      </c>
+      <c r="R9">
+        <v>6.39729320472</v>
+      </c>
+      <c r="S9">
+        <v>0.09956624781738789</v>
+      </c>
+      <c r="T9">
+        <v>0.07727032310742442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4916246666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.474874</v>
+      </c>
+      <c r="I10">
+        <v>0.181702039376163</v>
+      </c>
+      <c r="J10">
+        <v>0.1924949026910607</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.574263333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.72279</v>
+      </c>
+      <c r="O10">
+        <v>0.65042012319661</v>
+      </c>
+      <c r="P10">
+        <v>0.7147042813273964</v>
+      </c>
+      <c r="Q10">
+        <v>1.265571353162222</v>
+      </c>
+      <c r="R10">
+        <v>11.39014217846</v>
+      </c>
+      <c r="S10">
+        <v>0.1181826628361192</v>
+      </c>
+      <c r="T10">
+        <v>0.1375769310870016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4916246666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.474874</v>
+      </c>
+      <c r="I11">
+        <v>0.181702039376163</v>
+      </c>
+      <c r="J11">
+        <v>0.1924949026910607</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.160691</v>
+      </c>
+      <c r="N11">
+        <v>0.482073</v>
+      </c>
+      <c r="O11">
+        <v>0.04060060937171144</v>
+      </c>
+      <c r="P11">
+        <v>0.04461336343631537</v>
+      </c>
+      <c r="Q11">
+        <v>0.07899965931133333</v>
+      </c>
+      <c r="R11">
+        <v>0.710996933802</v>
+      </c>
+      <c r="S11">
+        <v>0.007377213522754925</v>
+      </c>
+      <c r="T11">
+        <v>0.008587845053394451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4916246666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.474874</v>
+      </c>
+      <c r="I12">
+        <v>0.181702039376163</v>
+      </c>
+      <c r="J12">
+        <v>0.1924949026910607</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1549256666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.464777</v>
+      </c>
+      <c r="O12">
+        <v>0.03914392513572826</v>
+      </c>
+      <c r="P12">
+        <v>0.04301270807085306</v>
+      </c>
+      <c r="Q12">
+        <v>0.0761652792331111</v>
+      </c>
+      <c r="R12">
+        <v>0.685487513098</v>
+      </c>
+      <c r="S12">
+        <v>0.007112531026349673</v>
+      </c>
+      <c r="T12">
+        <v>0.00827972705457786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4916246666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.474874</v>
+      </c>
+      <c r="I13">
+        <v>0.181702039376163</v>
+      </c>
+      <c r="J13">
+        <v>0.1924949026910607</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.067967</v>
+      </c>
+      <c r="N13">
+        <v>2.135934</v>
+      </c>
+      <c r="O13">
+        <v>0.2698353422959503</v>
+      </c>
+      <c r="P13">
+        <v>0.1976696471654351</v>
+      </c>
+      <c r="Q13">
+        <v>0.525038920386</v>
+      </c>
+      <c r="R13">
+        <v>3.150233522316</v>
+      </c>
+      <c r="S13">
+        <v>0.04902963199093918</v>
+      </c>
+      <c r="T13">
+        <v>0.03805039949608673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.452341645231787</v>
-      </c>
-      <c r="H9">
-        <v>0.452341645231787</v>
-      </c>
-      <c r="I9">
-        <v>0.2028066777078624</v>
-      </c>
-      <c r="J9">
-        <v>0.2028066777078624</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.06715854486576</v>
-      </c>
-      <c r="N9">
-        <v>1.06715854486576</v>
-      </c>
-      <c r="O9">
-        <v>0.3154439150299863</v>
-      </c>
-      <c r="P9">
-        <v>0.3154439150299863</v>
-      </c>
-      <c r="Q9">
-        <v>0.4827202519077376</v>
-      </c>
-      <c r="R9">
-        <v>0.4827202519077376</v>
-      </c>
-      <c r="S9">
-        <v>0.06397413241039276</v>
-      </c>
-      <c r="T9">
-        <v>0.06397413241039276</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4577756666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.373327</v>
+      </c>
+      <c r="I14">
+        <v>0.1691916167959757</v>
+      </c>
+      <c r="J14">
+        <v>0.1792413773841062</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.574263333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.72279</v>
+      </c>
+      <c r="O14">
+        <v>0.65042012319661</v>
+      </c>
+      <c r="P14">
+        <v>0.7147042813273964</v>
+      </c>
+      <c r="Q14">
+        <v>1.178435113592222</v>
+      </c>
+      <c r="R14">
+        <v>10.60591602233</v>
+      </c>
+      <c r="S14">
+        <v>0.1100456322402721</v>
+      </c>
+      <c r="T14">
+        <v>0.1281045798074403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4577756666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.373327</v>
+      </c>
+      <c r="I15">
+        <v>0.1691916167959757</v>
+      </c>
+      <c r="J15">
+        <v>0.1792413773841062</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.160691</v>
+      </c>
+      <c r="N15">
+        <v>0.482073</v>
+      </c>
+      <c r="O15">
+        <v>0.04060060937171144</v>
+      </c>
+      <c r="P15">
+        <v>0.04461336343631537</v>
+      </c>
+      <c r="Q15">
+        <v>0.07356042965233332</v>
+      </c>
+      <c r="R15">
+        <v>0.6620438668709999</v>
+      </c>
+      <c r="S15">
+        <v>0.006869282742501701</v>
+      </c>
+      <c r="T15">
+        <v>0.007996560712062889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4577756666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.373327</v>
+      </c>
+      <c r="I16">
+        <v>0.1691916167959757</v>
+      </c>
+      <c r="J16">
+        <v>0.1792413773841062</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1549256666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.464777</v>
+      </c>
+      <c r="O16">
+        <v>0.03914392513572826</v>
+      </c>
+      <c r="P16">
+        <v>0.04301270807085306</v>
+      </c>
+      <c r="Q16">
+        <v>0.07092120034211111</v>
+      </c>
+      <c r="R16">
+        <v>0.638290803079</v>
+      </c>
+      <c r="S16">
+        <v>0.006622823981454495</v>
+      </c>
+      <c r="T16">
+        <v>0.007709657039640165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4577756666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.373327</v>
+      </c>
+      <c r="I17">
+        <v>0.1691916167959757</v>
+      </c>
+      <c r="J17">
+        <v>0.1792413773841062</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.067967</v>
+      </c>
+      <c r="N17">
+        <v>2.135934</v>
+      </c>
+      <c r="O17">
+        <v>0.2698353422959503</v>
+      </c>
+      <c r="P17">
+        <v>0.1976696471654351</v>
+      </c>
+      <c r="Q17">
+        <v>0.4888893054029999</v>
+      </c>
+      <c r="R17">
+        <v>2.933335832417999</v>
+      </c>
+      <c r="S17">
+        <v>0.04565387783174735</v>
+      </c>
+      <c r="T17">
+        <v>0.03543057982496289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.455106</v>
+      </c>
+      <c r="H18">
+        <v>0.910212</v>
+      </c>
+      <c r="I18">
+        <v>0.1682049212319046</v>
+      </c>
+      <c r="J18">
+        <v>0.1187973822633226</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.574263333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.72279</v>
+      </c>
+      <c r="O18">
+        <v>0.65042012319661</v>
+      </c>
+      <c r="P18">
+        <v>0.7147042813273964</v>
+      </c>
+      <c r="Q18">
+        <v>1.17156268858</v>
+      </c>
+      <c r="R18">
+        <v>7.02937613148</v>
+      </c>
+      <c r="S18">
+        <v>0.1094038655899315</v>
+      </c>
+      <c r="T18">
+        <v>0.084904997714084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.455106</v>
+      </c>
+      <c r="H19">
+        <v>0.910212</v>
+      </c>
+      <c r="I19">
+        <v>0.1682049212319046</v>
+      </c>
+      <c r="J19">
+        <v>0.1187973822633226</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.160691</v>
+      </c>
+      <c r="N19">
+        <v>0.482073</v>
+      </c>
+      <c r="O19">
+        <v>0.04060060937171144</v>
+      </c>
+      <c r="P19">
+        <v>0.04461336343631537</v>
+      </c>
+      <c r="Q19">
+        <v>0.07313143824600001</v>
+      </c>
+      <c r="R19">
+        <v>0.438788629476</v>
+      </c>
+      <c r="S19">
+        <v>0.006829222301336053</v>
+      </c>
+      <c r="T19">
+        <v>0.005299950790196499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.455106</v>
+      </c>
+      <c r="H20">
+        <v>0.910212</v>
+      </c>
+      <c r="I20">
+        <v>0.1682049212319046</v>
+      </c>
+      <c r="J20">
+        <v>0.1187973822633226</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1549256666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.464777</v>
+      </c>
+      <c r="O20">
+        <v>0.03914392513572826</v>
+      </c>
+      <c r="P20">
+        <v>0.04301270807085306</v>
+      </c>
+      <c r="Q20">
+        <v>0.07050760045399999</v>
+      </c>
+      <c r="R20">
+        <v>0.423045602724</v>
+      </c>
+      <c r="S20">
+        <v>0.006584200844162744</v>
+      </c>
+      <c r="T20">
+        <v>0.005109797122873834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.455106</v>
+      </c>
+      <c r="H21">
+        <v>0.910212</v>
+      </c>
+      <c r="I21">
+        <v>0.1682049212319046</v>
+      </c>
+      <c r="J21">
+        <v>0.1187973822633226</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.067967</v>
+      </c>
+      <c r="N21">
+        <v>2.135934</v>
+      </c>
+      <c r="O21">
+        <v>0.2698353422959503</v>
+      </c>
+      <c r="P21">
+        <v>0.1976696471654351</v>
+      </c>
+      <c r="Q21">
+        <v>0.486038189502</v>
+      </c>
+      <c r="R21">
+        <v>1.944152758008</v>
+      </c>
+      <c r="S21">
+        <v>0.04538763249647434</v>
+      </c>
+      <c r="T21">
+        <v>0.02348263663616831</v>
       </c>
     </row>
   </sheetData>
